--- a/modules/core/web/WEB-INF/resources/reports/regressReport/regressReportTemplate1.xlsx
+++ b/modules/core/web/WEB-INF/resources/reports/regressReport/regressReportTemplate1.xlsx
@@ -12,7 +12,9 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Checklist" vbProcedure="false">regressReport!$A$16:$E$16</definedName>
-    <definedName function="false" hidden="false" name="Description" vbProcedure="false">regressReport!$A$1:$E$15</definedName>
+    <definedName function="false" hidden="false" name="Description" vbProcedure="false">regressReport!$A$1:$E$14</definedName>
+    <definedName function="false" hidden="false" name="Module" vbProcedure="false">regressReport!$A$15:$B$15</definedName>
+    <definedName function="false" hidden="false" name="TestCase" vbProcedure="false">regressReport!$A$17:$E$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,12 +26,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">﻿</t>
   </si>
   <si>
     <t xml:space="preserve">Отчет по плану регрессионного тестирования проекта ${pName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Период проведения: дата старта ${pRegressStartDate}, дата окончания ${pRegressFinishDate}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Цель: проведение функционального регрессионного тестирования с целью удостовериться в корректности работы СЭД ТЕЗИС для ${pName} и ранее выполненных доработок для ветки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сборка:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тестовая среда: все проверки выполнены на тестовых стендах исполнителей</t>
   </si>
   <si>
     <r>
@@ -41,7 +55,7 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">Период проведения: </t>
+      <t xml:space="preserve">Исполнители: </t>
     </r>
     <r>
       <rPr>
@@ -51,60 +65,8 @@
         <family val="0"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">дата старта ${pRegressStartDate}, дата окончания ${pRegressFinishDate}</t>
+      <t xml:space="preserve">${pQa}</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Цель: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">проведение функционального регрессионного тестирования с целью удостовериться в корректности работы СЭД ТЕЗИС для ${pName} и ранее выполненных доработок для ветки</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Сборка:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Тестовая среда: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">все проверки выполнены на тестовых стендах исполнителей</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Исполнители: </t>
   </si>
   <si>
     <t xml:space="preserve">№ 
@@ -126,7 +88,23 @@
     <t xml:space="preserve">Тестирование выполнялось на версии ${pThesisVersion} с подключением ${pDbms}, установленной и настроенной на следующих конфигурациях: </t>
   </si>
   <si>
+    <t xml:space="preserve">${cModule}</t>
+  </si>
+  <si>
     <t xml:space="preserve">${cName}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${cState}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${cQa}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${cTestCaseName}
+${cStep}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${cExpectedResult}</t>
   </si>
 </sst>
 </file>
@@ -284,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -301,11 +279,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,6 +328,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,7 +423,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -446,7 +432,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="112.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.94"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -490,7 +476,7 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="5"/>
@@ -506,9 +492,9 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
@@ -530,75 +516,85 @@
       <c r="E10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="44.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13" t="n">
+      <c r="A16" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="E16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
     </row>
     <row r="18" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="5"/>
     </row>
   </sheetData>

--- a/modules/core/web/WEB-INF/resources/reports/regressReport/regressReportTemplate1.xlsx
+++ b/modules/core/web/WEB-INF/resources/reports/regressReport/regressReportTemplate1.xlsx
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="false" name="Checklist" vbProcedure="false">regressReport!$A$16:$E$16</definedName>
     <definedName function="false" hidden="false" name="Description" vbProcedure="false">regressReport!$A$1:$E$14</definedName>
-    <definedName function="false" hidden="false" name="Module" vbProcedure="false">regressReport!$A$15:$B$15</definedName>
+    <definedName function="false" hidden="false" name="Module" vbProcedure="false">regressReport!$A$15:$E$15</definedName>
     <definedName function="false" hidden="false" name="TestCase" vbProcedure="false">regressReport!$A$17:$E$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">﻿</t>
   </si>
@@ -46,27 +46,7 @@
     <t xml:space="preserve">Тестовая среда: все проверки выполнены на тестовых стендах исполнителей</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Исполнители: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">${pQa}</t>
-    </r>
+    <t xml:space="preserve">Исполнители: ${pQa}</t>
   </si>
   <si>
     <t xml:space="preserve">№ 
@@ -89,6 +69,9 @@
   </si>
   <si>
     <t xml:space="preserve">${cModule}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${cN}</t>
   </si>
   <si>
     <t xml:space="preserve">${cName}</t>
@@ -179,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -224,6 +207,33 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
@@ -233,7 +243,18 @@
       <top style="medium">
         <color rgb="FFCCCCCC"/>
       </top>
-      <bottom style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -262,7 +283,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -331,15 +352,23 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -423,7 +452,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -492,9 +521,9 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3"/>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5"/>
@@ -565,37 +594,37 @@
       <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
-        <v>1</v>
+      <c r="A16" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="5"/>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/modules/core/web/WEB-INF/resources/reports/regressReport/regressReportTemplate1.xlsx
+++ b/modules/core/web/WEB-INF/resources/reports/regressReport/regressReportTemplate1.xlsx
@@ -11,10 +11,10 @@
     <sheet name="regressReport" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="Checklist" vbProcedure="false">regressReport!$A$16:$E$16</definedName>
+    <definedName function="false" hidden="false" name="Checklist" vbProcedure="false">regressReport!$A$17:$E$17</definedName>
     <definedName function="false" hidden="false" name="Description" vbProcedure="false">regressReport!$A$1:$E$14</definedName>
-    <definedName function="false" hidden="false" name="Module" vbProcedure="false">regressReport!$A$15:$E$15</definedName>
-    <definedName function="false" hidden="false" name="TestCase" vbProcedure="false">regressReport!$A$17:$E$17</definedName>
+    <definedName function="false" hidden="false" name="Module" vbProcedure="false">regressReport!$A$15:$E$16</definedName>
+    <definedName function="false" hidden="false" name="TestCase" vbProcedure="false">regressReport!$A$18:$E$18</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -65,7 +65,7 @@
     <t xml:space="preserve">Кто тестирует</t>
   </si>
   <si>
-    <t xml:space="preserve">Тестирование выполнялось на версии ${pThesisVersion} с подключением ${pDbms}, установленной и настроенной на следующих конфигурациях: </t>
+    <t xml:space="preserve">Тестирование выполнялось на версии ${pThesisVersion} с подключением ${pDbms}, установленной и настроенной на следующих тестовых конфигурациях: ${pConfiguration}</t>
   </si>
   <si>
     <t xml:space="preserve">${cModule}</t>
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,6 +135,13 @@
       <family val="0"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -283,7 +290,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -324,12 +331,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -449,10 +460,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -584,50 +595,57 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-    </row>
-    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+    </row>
+    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B17" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="4" t="s">
+    <row r="18" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13"/>
+      <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C18" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+    </row>
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="B2:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
@@ -638,9 +656,10 @@
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/modules/core/web/WEB-INF/resources/reports/regressReport/regressReportTemplate1.xlsx
+++ b/modules/core/web/WEB-INF/resources/reports/regressReport/regressReportTemplate1.xlsx
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -119,6 +119,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans Devanagari"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,9 +144,9 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
-      <charset val="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -290,20 +296,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -311,51 +321,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -363,7 +373,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,11 +385,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,10 +473,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.9921875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="112.11"/>
@@ -475,174 +485,178 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.94"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" customFormat="false" ht="15.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" customFormat="false" ht="44.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="14">
